--- a/cln3 HF iono free ca free 26-02-18 2.xlsx
+++ b/cln3 HF iono free ca free 26-02-18 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/williamsi27_cardiff_ac_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{276E5D69-BB99-2740-9EF1-71B69E968E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F6D529-82EF-40BD-9ED3-BA693DA56DB4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02E9EE8A-68C1-47D3-A57D-CC580B88125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Time (sec)</t>
   </si>
@@ -150,6 +150,12 @@
   <si>
     <t>R12 R1</t>
   </si>
+  <si>
+    <t>iono</t>
+  </si>
+  <si>
+    <t>gpn</t>
+  </si>
 </sst>
 </file>
 
@@ -209,6 +215,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,12 +487,12 @@
   <dimension ref="A1:CP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +638,7 @@
       <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1.1499999999999999</v>
       </c>
@@ -774,7 +784,7 @@
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>31.15</v>
       </c>
@@ -920,11 +930,13 @@
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>33.96</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -994,7 +1006,7 @@
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>40.74</v>
       </c>
@@ -1140,7 +1152,7 @@
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45.74</v>
       </c>
@@ -1286,7 +1298,7 @@
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>50.74</v>
       </c>
@@ -1432,7 +1444,7 @@
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>55.74</v>
       </c>
@@ -1578,7 +1590,7 @@
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>60.74</v>
       </c>
@@ -1724,7 +1736,7 @@
       <c r="BQ9" s="1"/>
       <c r="BR9" s="1"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>70.739999999999995</v>
       </c>
@@ -1870,7 +1882,7 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>80.739999999999995</v>
       </c>
@@ -2016,7 +2028,7 @@
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>110.74</v>
       </c>
@@ -2162,7 +2174,7 @@
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>140.74</v>
       </c>
@@ -2308,7 +2320,7 @@
       <c r="BQ13" s="1"/>
       <c r="BR13" s="1"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>170.74</v>
       </c>
@@ -2454,7 +2466,7 @@
       <c r="BQ14" s="1"/>
       <c r="BR14" s="1"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>200.74</v>
       </c>
@@ -2600,7 +2612,7 @@
       <c r="BQ15" s="1"/>
       <c r="BR15" s="1"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>230.74</v>
       </c>
@@ -2746,7 +2758,7 @@
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>260.74</v>
       </c>
@@ -2892,7 +2904,7 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>290.74</v>
       </c>
@@ -3038,11 +3050,13 @@
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>293.54000000000002</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3112,7 +3126,7 @@
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>301.56</v>
       </c>
@@ -3258,7 +3272,7 @@
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>306.56</v>
       </c>
@@ -3404,7 +3418,7 @@
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>311.56</v>
       </c>
@@ -3550,7 +3564,7 @@
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>316.56</v>
       </c>
@@ -3696,7 +3710,7 @@
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>321.56</v>
       </c>
@@ -3842,7 +3856,7 @@
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>326.56</v>
       </c>
@@ -3988,7 +4002,7 @@
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>331.56</v>
       </c>
@@ -4134,7 +4148,7 @@
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>336.56</v>
       </c>
@@ -4280,7 +4294,7 @@
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>341.56</v>
       </c>
@@ -4426,7 +4440,7 @@
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>346.56</v>
       </c>
@@ -4572,7 +4586,7 @@
       <c r="BQ29" s="1"/>
       <c r="BR29" s="1"/>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>351.56</v>
       </c>
@@ -4718,7 +4732,7 @@
       <c r="BQ30" s="1"/>
       <c r="BR30" s="1"/>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>356.56</v>
       </c>
@@ -4864,7 +4878,7 @@
       <c r="BQ31" s="1"/>
       <c r="BR31" s="1"/>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>361.56</v>
       </c>
@@ -5010,7 +5024,7 @@
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>366.56</v>
       </c>
@@ -5156,7 +5170,7 @@
       <c r="BQ33" s="1"/>
       <c r="BR33" s="1"/>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>371.56</v>
       </c>
@@ -5302,7 +5316,7 @@
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>376.56</v>
       </c>
@@ -5448,7 +5462,7 @@
       <c r="BQ35" s="1"/>
       <c r="BR35" s="1"/>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>381.56</v>
       </c>
@@ -5594,7 +5608,7 @@
       <c r="BQ36" s="1"/>
       <c r="BR36" s="1"/>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>386.56</v>
       </c>
@@ -5740,7 +5754,7 @@
       <c r="BQ37" s="1"/>
       <c r="BR37" s="1"/>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>391.56</v>
       </c>
@@ -5886,7 +5900,7 @@
       <c r="BQ38" s="1"/>
       <c r="BR38" s="1"/>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>396.56</v>
       </c>
@@ -6032,7 +6046,7 @@
       <c r="BQ39" s="1"/>
       <c r="BR39" s="1"/>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>401.56</v>
       </c>
@@ -6178,7 +6192,7 @@
       <c r="BQ40" s="1"/>
       <c r="BR40" s="1"/>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>406.56</v>
       </c>
@@ -6324,7 +6338,7 @@
       <c r="BQ41" s="1"/>
       <c r="BR41" s="1"/>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>411.56</v>
       </c>
@@ -6470,7 +6484,7 @@
       <c r="BQ42" s="1"/>
       <c r="BR42" s="1"/>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>416.56</v>
       </c>
@@ -6616,7 +6630,7 @@
       <c r="BQ43" s="1"/>
       <c r="BR43" s="1"/>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>421.56</v>
       </c>
@@ -6762,7 +6776,7 @@
       <c r="BQ44" s="1"/>
       <c r="BR44" s="1"/>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>426.56</v>
       </c>
@@ -6908,7 +6922,7 @@
       <c r="BQ45" s="1"/>
       <c r="BR45" s="1"/>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>431.56</v>
       </c>
@@ -7054,7 +7068,7 @@
       <c r="BQ46" s="1"/>
       <c r="BR46" s="1"/>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>436.56</v>
       </c>
@@ -7200,7 +7214,7 @@
       <c r="BQ47" s="1"/>
       <c r="BR47" s="1"/>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>441.56</v>
       </c>
@@ -7346,7 +7360,7 @@
       <c r="BQ48" s="1"/>
       <c r="BR48" s="1"/>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>446.56</v>
       </c>
@@ -7492,7 +7506,7 @@
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>451.56</v>
       </c>
@@ -7638,7 +7652,7 @@
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>456.56</v>
       </c>
@@ -7784,7 +7798,7 @@
       <c r="BQ51" s="1"/>
       <c r="BR51" s="1"/>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>461.56</v>
       </c>
@@ -7930,7 +7944,7 @@
       <c r="BQ52" s="1"/>
       <c r="BR52" s="1"/>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>466.56</v>
       </c>
@@ -8076,7 +8090,7 @@
       <c r="BQ53" s="1"/>
       <c r="BR53" s="1"/>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>471.56</v>
       </c>
@@ -8222,7 +8236,7 @@
       <c r="BQ54" s="1"/>
       <c r="BR54" s="1"/>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>476.56</v>
       </c>
@@ -8368,7 +8382,7 @@
       <c r="BQ55" s="1"/>
       <c r="BR55" s="1"/>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>481.56</v>
       </c>
@@ -8514,7 +8528,7 @@
       <c r="BQ56" s="1"/>
       <c r="BR56" s="1"/>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>486.56</v>
       </c>
@@ -8660,7 +8674,7 @@
       <c r="BQ57" s="1"/>
       <c r="BR57" s="1"/>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>516.54999999999995</v>
       </c>
@@ -8806,7 +8820,7 @@
       <c r="BQ58" s="1"/>
       <c r="BR58" s="1"/>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -8878,7 +8892,7 @@
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -8950,7 +8964,7 @@
       <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -9022,7 +9036,7 @@
       <c r="BQ61" s="1"/>
       <c r="BR61" s="1"/>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -9094,7 +9108,7 @@
       <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9166,7 +9180,7 @@
       <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9238,7 +9252,7 @@
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9310,7 +9324,7 @@
       <c r="BQ65" s="1"/>
       <c r="BR65" s="1"/>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9382,7 +9396,7 @@
       <c r="BQ66" s="1"/>
       <c r="BR66" s="1"/>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9454,7 +9468,7 @@
       <c r="BQ67" s="1"/>
       <c r="BR67" s="1"/>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -9526,7 +9540,7 @@
       <c r="BQ68" s="1"/>
       <c r="BR68" s="1"/>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -9598,7 +9612,7 @@
       <c r="BQ69" s="1"/>
       <c r="BR69" s="1"/>
     </row>
-    <row r="70" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -9670,7 +9684,7 @@
       <c r="BQ70" s="1"/>
       <c r="BR70" s="1"/>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -9742,7 +9756,7 @@
       <c r="BQ71" s="1"/>
       <c r="BR71" s="1"/>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -9814,7 +9828,7 @@
       <c r="BQ72" s="1"/>
       <c r="BR72" s="1"/>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -9886,7 +9900,7 @@
       <c r="BQ73" s="1"/>
       <c r="BR73" s="1"/>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9958,7 +9972,7 @@
       <c r="BQ74" s="1"/>
       <c r="BR74" s="1"/>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -10030,7 +10044,7 @@
       <c r="BQ75" s="1"/>
       <c r="BR75" s="1"/>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -10102,7 +10116,7 @@
       <c r="BQ76" s="1"/>
       <c r="BR76" s="1"/>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -10174,7 +10188,7 @@
       <c r="BQ77" s="1"/>
       <c r="BR77" s="1"/>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -10246,7 +10260,7 @@
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -10318,7 +10332,7 @@
       <c r="BQ79" s="1"/>
       <c r="BR79" s="1"/>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -10390,7 +10404,7 @@
       <c r="BQ80" s="1"/>
       <c r="BR80" s="1"/>
     </row>
-    <row r="81" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -10462,7 +10476,7 @@
       <c r="BQ81" s="1"/>
       <c r="BR81" s="1"/>
     </row>
-    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -10534,7 +10548,7 @@
       <c r="BQ82" s="1"/>
       <c r="BR82" s="1"/>
     </row>
-    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -10606,7 +10620,7 @@
       <c r="BQ83" s="1"/>
       <c r="BR83" s="1"/>
     </row>
-    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -10678,7 +10692,7 @@
       <c r="BQ84" s="1"/>
       <c r="BR84" s="1"/>
     </row>
-    <row r="85" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -10750,7 +10764,7 @@
       <c r="BQ85" s="1"/>
       <c r="BR85" s="1"/>
     </row>
-    <row r="86" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -10822,7 +10836,7 @@
       <c r="BQ86" s="1"/>
       <c r="BR86" s="1"/>
     </row>
-    <row r="87" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -10894,7 +10908,7 @@
       <c r="BQ87" s="1"/>
       <c r="BR87" s="1"/>
     </row>
-    <row r="88" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -10966,7 +10980,7 @@
       <c r="BQ88" s="1"/>
       <c r="BR88" s="1"/>
     </row>
-    <row r="89" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -11038,7 +11052,7 @@
       <c r="BQ89" s="1"/>
       <c r="BR89" s="1"/>
     </row>
-    <row r="90" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -11110,7 +11124,7 @@
       <c r="BQ90" s="1"/>
       <c r="BR90" s="1"/>
     </row>
-    <row r="91" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -11182,7 +11196,7 @@
       <c r="BQ91" s="1"/>
       <c r="BR91" s="1"/>
     </row>
-    <row r="92" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -11254,7 +11268,7 @@
       <c r="BQ92" s="1"/>
       <c r="BR92" s="1"/>
     </row>
-    <row r="93" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -11326,7 +11340,7 @@
       <c r="BQ93" s="1"/>
       <c r="BR93" s="1"/>
     </row>
-    <row r="94" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -11398,7 +11412,7 @@
       <c r="BQ94" s="1"/>
       <c r="BR94" s="1"/>
     </row>
-    <row r="95" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -11470,7 +11484,7 @@
       <c r="BQ95" s="1"/>
       <c r="BR95" s="1"/>
     </row>
-    <row r="96" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -11542,7 +11556,7 @@
       <c r="BQ96" s="1"/>
       <c r="BR96" s="1"/>
     </row>
-    <row r="97" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -11614,7 +11628,7 @@
       <c r="BQ97" s="1"/>
       <c r="BR97" s="1"/>
     </row>
-    <row r="98" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -11686,7 +11700,7 @@
       <c r="BQ98" s="1"/>
       <c r="BR98" s="1"/>
     </row>
-    <row r="99" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -11758,7 +11772,7 @@
       <c r="BQ99" s="1"/>
       <c r="BR99" s="1"/>
     </row>
-    <row r="100" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -11830,7 +11844,7 @@
       <c r="BQ100" s="1"/>
       <c r="BR100" s="1"/>
     </row>
-    <row r="101" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -11902,7 +11916,7 @@
       <c r="BQ101" s="1"/>
       <c r="BR101" s="1"/>
     </row>
-    <row r="102" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -11974,7 +11988,7 @@
       <c r="BQ102" s="1"/>
       <c r="BR102" s="1"/>
     </row>
-    <row r="103" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -12046,7 +12060,7 @@
       <c r="BQ103" s="1"/>
       <c r="BR103" s="1"/>
     </row>
-    <row r="104" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -12118,7 +12132,7 @@
       <c r="BQ104" s="1"/>
       <c r="BR104" s="1"/>
     </row>
-    <row r="105" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -12190,7 +12204,7 @@
       <c r="BQ105" s="1"/>
       <c r="BR105" s="1"/>
     </row>
-    <row r="106" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -12286,7 +12300,7 @@
       <c r="CO106" s="1"/>
       <c r="CP106" s="1"/>
     </row>
-    <row r="107" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -12382,7 +12396,7 @@
       <c r="CO107" s="1"/>
       <c r="CP107" s="1"/>
     </row>
-    <row r="108" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -12478,7 +12492,7 @@
       <c r="CO108" s="1"/>
       <c r="CP108" s="1"/>
     </row>
-    <row r="109" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -12574,7 +12588,7 @@
       <c r="CO109" s="1"/>
       <c r="CP109" s="1"/>
     </row>
-    <row r="110" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -12670,7 +12684,7 @@
       <c r="CO110" s="1"/>
       <c r="CP110" s="1"/>
     </row>
-    <row r="111" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -12766,7 +12780,7 @@
       <c r="CO111" s="1"/>
       <c r="CP111" s="1"/>
     </row>
-    <row r="112" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -12862,7 +12876,7 @@
       <c r="CO112" s="1"/>
       <c r="CP112" s="1"/>
     </row>
-    <row r="113" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -12958,7 +12972,7 @@
       <c r="CO113" s="1"/>
       <c r="CP113" s="1"/>
     </row>
-    <row r="114" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -13054,7 +13068,7 @@
       <c r="CO114" s="1"/>
       <c r="CP114" s="1"/>
     </row>
-    <row r="115" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -13150,7 +13164,7 @@
       <c r="CO115" s="1"/>
       <c r="CP115" s="1"/>
     </row>
-    <row r="116" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -13231,7 +13245,7 @@
       <c r="BZ116" s="1"/>
       <c r="CA116" s="1"/>
     </row>
-    <row r="117" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -13312,7 +13326,7 @@
       <c r="BZ117" s="1"/>
       <c r="CA117" s="1"/>
     </row>
-    <row r="118" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -13393,7 +13407,7 @@
       <c r="BZ118" s="1"/>
       <c r="CA118" s="1"/>
     </row>
-    <row r="119" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -13474,7 +13488,7 @@
       <c r="BZ119" s="1"/>
       <c r="CA119" s="1"/>
     </row>
-    <row r="120" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -13555,7 +13569,7 @@
       <c r="BZ120" s="1"/>
       <c r="CA120" s="1"/>
     </row>
-    <row r="121" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -13633,7 +13647,7 @@
       <c r="BW121" s="1"/>
       <c r="BX121" s="1"/>
     </row>
-    <row r="122" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -13711,7 +13725,7 @@
       <c r="BW122" s="1"/>
       <c r="BX122" s="1"/>
     </row>
-    <row r="123" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -13789,7 +13803,7 @@
       <c r="BW123" s="1"/>
       <c r="BX123" s="1"/>
     </row>
-    <row r="124" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -13867,7 +13881,7 @@
       <c r="BW124" s="1"/>
       <c r="BX124" s="1"/>
     </row>
-    <row r="125" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -13945,7 +13959,7 @@
       <c r="BW125" s="1"/>
       <c r="BX125" s="1"/>
     </row>
-    <row r="126" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -14023,7 +14037,7 @@
       <c r="BW126" s="1"/>
       <c r="BX126" s="1"/>
     </row>
-    <row r="127" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -14101,7 +14115,7 @@
       <c r="BW127" s="1"/>
       <c r="BX127" s="1"/>
     </row>
-    <row r="128" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -14179,7 +14193,7 @@
       <c r="BW128" s="1"/>
       <c r="BX128" s="1"/>
     </row>
-    <row r="129" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -14257,7 +14271,7 @@
       <c r="BW129" s="1"/>
       <c r="BX129" s="1"/>
     </row>
-    <row r="130" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -14335,7 +14349,7 @@
       <c r="BW130" s="1"/>
       <c r="BX130" s="1"/>
     </row>
-    <row r="131" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -14413,7 +14427,7 @@
       <c r="BW131" s="1"/>
       <c r="BX131" s="1"/>
     </row>
-    <row r="132" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -14491,7 +14505,7 @@
       <c r="BW132" s="1"/>
       <c r="BX132" s="1"/>
     </row>
-    <row r="133" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -14569,7 +14583,7 @@
       <c r="BW133" s="1"/>
       <c r="BX133" s="1"/>
     </row>
-    <row r="134" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -14647,7 +14661,7 @@
       <c r="BW134" s="1"/>
       <c r="BX134" s="1"/>
     </row>
-    <row r="135" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -14725,7 +14739,7 @@
       <c r="BW135" s="1"/>
       <c r="BX135" s="1"/>
     </row>
-    <row r="136" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -14794,7 +14808,7 @@
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
     </row>
-    <row r="137" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -14863,7 +14877,7 @@
       <c r="BN137" s="1"/>
       <c r="BO137" s="1"/>
     </row>
-    <row r="138" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -14932,7 +14946,7 @@
       <c r="BN138" s="1"/>
       <c r="BO138" s="1"/>
     </row>
-    <row r="139" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -15001,7 +15015,7 @@
       <c r="BN139" s="1"/>
       <c r="BO139" s="1"/>
     </row>
-    <row r="140" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -15070,7 +15084,7 @@
       <c r="BN140" s="1"/>
       <c r="BO140" s="1"/>
     </row>
-    <row r="141" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -15139,7 +15153,7 @@
       <c r="BN141" s="1"/>
       <c r="BO141" s="1"/>
     </row>
-    <row r="142" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -15208,7 +15222,7 @@
       <c r="BN142" s="1"/>
       <c r="BO142" s="1"/>
     </row>
-    <row r="143" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -15277,7 +15291,7 @@
       <c r="BN143" s="1"/>
       <c r="BO143" s="1"/>
     </row>
-    <row r="144" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -15346,7 +15360,7 @@
       <c r="BN144" s="1"/>
       <c r="BO144" s="1"/>
     </row>
-    <row r="145" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -15415,7 +15429,7 @@
       <c r="BN145" s="1"/>
       <c r="BO145" s="1"/>
     </row>
-    <row r="146" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -15484,7 +15498,7 @@
       <c r="BN146" s="1"/>
       <c r="BO146" s="1"/>
     </row>
-    <row r="147" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -15553,7 +15567,7 @@
       <c r="BN147" s="1"/>
       <c r="BO147" s="1"/>
     </row>
-    <row r="148" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
